--- a/Pin_Usage.xlsx
+++ b/Pin_Usage.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\! - Synced Docs\OneDrive\! - RaspberryPi\Git Repositorys\DalekBot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Pin</t>
   </si>
@@ -65,9 +60,6 @@
     <t>pinMotorFLForwards</t>
   </si>
   <si>
-    <t>+5</t>
-  </si>
-  <si>
     <t>+3.3</t>
   </si>
   <si>
@@ -93,13 +85,79 @@
   </si>
   <si>
     <t>Web Cam</t>
+  </si>
+  <si>
+    <t>pHat + 5</t>
+  </si>
+  <si>
+    <t>Distance +5</t>
+  </si>
+  <si>
+    <t>pHat GND</t>
+  </si>
+  <si>
+    <t>Distance GND</t>
+  </si>
+  <si>
+    <t>Pin on Dev</t>
+  </si>
+  <si>
+    <t>6 Green</t>
+  </si>
+  <si>
+    <t>3 Gray</t>
+  </si>
+  <si>
+    <t>Distance Left Echo</t>
+  </si>
+  <si>
+    <t>1 Black</t>
+  </si>
+  <si>
+    <t>Distance Left Trig</t>
+  </si>
+  <si>
+    <t>2 White</t>
+  </si>
+  <si>
+    <t>Distance Center Echo</t>
+  </si>
+  <si>
+    <t>4 Purple</t>
+  </si>
+  <si>
+    <t>Distance Center Trig</t>
+  </si>
+  <si>
+    <t>5 Blue</t>
+  </si>
+  <si>
+    <t>Distance Right Echo</t>
+  </si>
+  <si>
+    <t>Distance Right Trig</t>
+  </si>
+  <si>
+    <t>9 Red</t>
+  </si>
+  <si>
+    <t>10 Brown</t>
+  </si>
+  <si>
+    <t>Right Motor GND</t>
+  </si>
+  <si>
+    <t>Left Motor GND</t>
+  </si>
+  <si>
+    <t>Not Usable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,7 +268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,7 +303,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,40 +480,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="E1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="5" customWidth="1"/>
+    <col min="1" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:13">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="5:13">
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -464,12 +529,15 @@
         <v>2</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="6:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="5:13">
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2">
         <v>3</v>
@@ -478,12 +546,12 @@
         <v>4</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="6:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="5:13">
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2">
         <v>5</v>
@@ -492,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="6:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="5:13">
       <c r="G5" s="2">
         <v>7</v>
       </c>
@@ -506,9 +574,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:13">
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2">
         <v>9</v>
@@ -520,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:13">
       <c r="F7" t="s">
         <v>1</v>
       </c>
@@ -534,7 +602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:13">
       <c r="F8" t="s">
         <v>3</v>
       </c>
@@ -545,7 +613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:13">
       <c r="F9" t="s">
         <v>2</v>
       </c>
@@ -556,9 +624,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:13">
       <c r="F10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2">
         <v>17</v>
@@ -566,8 +634,9 @@
       <c r="H10" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="5:13">
       <c r="F11" t="s">
         <v>7</v>
       </c>
@@ -578,10 +647,10 @@
         <v>20</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="6:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13">
       <c r="F12" t="s">
         <v>8</v>
       </c>
@@ -595,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:13">
       <c r="F13" t="s">
         <v>9</v>
       </c>
@@ -609,9 +678,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:13">
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2">
         <v>25</v>
@@ -623,15 +692,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:13">
+      <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G15" s="2">
         <v>27</v>
       </c>
       <c r="H15" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13">
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" s="2">
         <v>29</v>
       </c>
@@ -639,18 +720,39 @@
         <v>30</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10">
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G17" s="2">
         <v>31</v>
       </c>
       <c r="H17" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G18" s="2">
         <v>33</v>
       </c>
@@ -658,10 +760,16 @@
         <v>34</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10">
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G19" s="2">
         <v>35</v>
       </c>
@@ -669,7 +777,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:10">
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G20" s="2">
         <v>37</v>
       </c>
@@ -677,9 +791,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:10">
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G21" s="2">
         <v>39</v>
@@ -688,23 +802,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:10">
       <c r="F23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
         <v>18</v>
       </c>
-      <c r="H23" t="s">
+    </row>
+    <row r="24" spans="5:10">
+      <c r="G24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>20</v>
-      </c>
-      <c r="H24" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Pin_Usage.xlsx
+++ b/Pin_Usage.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\! - Synced Docs\OneDrive\! - RaspberryPi\Git Repositorys\DalekBot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="New Setup" sheetId="2" r:id="rId1"/>
+    <sheet name="Original Setup" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
   <si>
     <t>Pin</t>
   </si>
@@ -151,13 +157,73 @@
   </si>
   <si>
     <t>Not Usable</t>
+  </si>
+  <si>
+    <t>Old Location</t>
+  </si>
+  <si>
+    <t>New location</t>
+  </si>
+  <si>
+    <t>FRS</t>
+  </si>
+  <si>
+    <t>FRB</t>
+  </si>
+  <si>
+    <t>FRF</t>
+  </si>
+  <si>
+    <t>Note Swap 2 Pins</t>
+  </si>
+  <si>
+    <t>FLS</t>
+  </si>
+  <si>
+    <t>BLB</t>
+  </si>
+  <si>
+    <t>FLF</t>
+  </si>
+  <si>
+    <t>FLB</t>
+  </si>
+  <si>
+    <t>BRS</t>
+  </si>
+  <si>
+    <t>BRF</t>
+  </si>
+  <si>
+    <t>BRB</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>BLF</t>
+  </si>
+  <si>
+    <t>SPI MOSI</t>
+  </si>
+  <si>
+    <t>SPI MISO</t>
+  </si>
+  <si>
+    <t>SPI SCKL</t>
+  </si>
+  <si>
+    <t>SPI CS0</t>
+  </si>
+  <si>
+    <t>SPI CS1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,13 +239,83 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,7 +341,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -480,21 +642,347 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="4" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+      <c r="G5" s="2">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2">
+        <v>12</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2">
+        <v>14</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="2">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2">
+        <v>20</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="2">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2">
+        <v>24</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2">
+        <v>26</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="2">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2">
+        <v>28</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+      <c r="G16" s="2">
+        <v>29</v>
+      </c>
+      <c r="H16" s="2">
+        <v>30</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+      <c r="G17" s="2">
+        <v>31</v>
+      </c>
+      <c r="H17" s="2">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>33</v>
+      </c>
+      <c r="H18" s="2">
+        <v>34</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>35</v>
+      </c>
+      <c r="H19" s="2">
+        <v>36</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>37</v>
+      </c>
+      <c r="H20" s="2">
+        <v>38</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="2">
+        <v>39</v>
+      </c>
+      <c r="H21" s="2">
+        <v>40</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:R31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
@@ -502,9 +990,10 @@
     <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:13">
+    <row r="1" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>26</v>
       </c>
@@ -518,8 +1007,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="5:13">
-      <c r="F2" s="4" t="s">
+    <row r="2" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2">
@@ -528,15 +1017,15 @@
       <c r="H2" s="2">
         <v>2</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="5:13">
-      <c r="F3" t="s">
+    <row r="3" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2">
@@ -545,12 +1034,19 @@
       <c r="H3" s="2">
         <v>4</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="5:13">
-      <c r="F4" t="s">
+      <c r="N3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="2">
@@ -559,23 +1055,36 @@
       <c r="H4" s="2">
         <v>6</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="5:13">
+    <row r="5" spans="5:18" x14ac:dyDescent="0.25">
       <c r="G5" s="2">
         <v>7</v>
       </c>
       <c r="H5" s="2">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="5:13">
-      <c r="F6" s="1" t="s">
+      <c r="M5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="1">
+        <v>11</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="2">
@@ -584,12 +1093,28 @@
       <c r="H6" s="2">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="5:13">
-      <c r="F7" t="s">
+      <c r="M6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="1">
+        <v>13</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="2">
@@ -598,12 +1123,28 @@
       <c r="H7" s="2">
         <v>12</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="5:13">
-      <c r="F8" t="s">
+      <c r="M7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="1">
+        <v>15</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="2">
@@ -612,9 +1153,17 @@
       <c r="H8" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="5:13">
-      <c r="F9" t="s">
+      <c r="I8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="2">
@@ -623,9 +1172,22 @@
       <c r="H9" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="5:13">
-      <c r="F10" s="4" t="s">
+      <c r="M9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="1">
+        <v>22</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="2">
@@ -634,10 +1196,25 @@
       <c r="H10" s="2">
         <v>18</v>
       </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="5:13">
-      <c r="F11" t="s">
+      <c r="M10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="1">
+        <v>24</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="2">
@@ -646,12 +1223,28 @@
       <c r="H11" s="2">
         <v>20</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="5:13">
-      <c r="F12" t="s">
+      <c r="M11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="1">
+        <v>26</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="2">
@@ -660,12 +1253,17 @@
       <c r="H12" s="2">
         <v>22</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="5:13">
-      <c r="F13" t="s">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="2">
@@ -674,12 +1272,25 @@
       <c r="H13" s="2">
         <v>24</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="5:13">
-      <c r="F14" s="1" t="s">
+      <c r="M13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="1">
+        <v>8</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="2">
@@ -688,12 +1299,25 @@
       <c r="H14" s="2">
         <v>26</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="5:13">
-      <c r="F15" s="1" t="s">
+      <c r="M14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="1">
+        <v>10</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F15" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="2">
@@ -702,11 +1326,24 @@
       <c r="H15" s="2">
         <v>28</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="5:13">
+      <c r="M15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="1">
+        <v>12</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>39</v>
       </c>
@@ -719,14 +1356,19 @@
       <c r="H16" s="2">
         <v>30</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="5:10">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>34</v>
       </c>
@@ -745,8 +1387,21 @@
       <c r="J17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="5:10">
+      <c r="M17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="1">
+        <v>19</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>36</v>
       </c>
@@ -759,11 +1414,27 @@
       <c r="H18" s="2">
         <v>34</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="5:10">
+      <c r="M18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="1">
+        <v>21</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>32</v>
       </c>
@@ -776,8 +1447,24 @@
       <c r="H19" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="5:10">
+      <c r="M19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="1">
+        <v>23</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>30</v>
       </c>
@@ -790,9 +1477,14 @@
       <c r="H20" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="5:10">
-      <c r="F21" s="1" t="s">
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="2">
@@ -801,27 +1493,99 @@
       <c r="H21" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="5:10">
-      <c r="F23" t="s">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="5:10">
-      <c r="G24" t="s">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="G24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>